--- a/data/raw/implan/implan-stage.xlsx
+++ b/data/raw/implan/implan-stage.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF771B0-F07C-4E4E-A22D-796103E8EB5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A069A21F-838C-47F3-B69D-8AB3B283D2CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4995" yWindow="2310" windowWidth="22380" windowHeight="15435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="8" r:id="rId1"/>
@@ -1219,7 +1219,7 @@
   </sheetPr>
   <dimension ref="A2:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -3685,8 +3685,8 @@
   <dimension ref="A1:F125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I93" sqref="I93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5899,9 +5899,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE828F6-DB1F-43A0-91E2-5D08FF188C9A}">
   <dimension ref="A1:F141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7897,7 +7897,7 @@
         <v>440</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F116" t="s">
         <v>17</v>
@@ -7917,7 +7917,7 @@
         <v>59</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F117" t="s">
         <v>17</v>
@@ -7937,7 +7937,7 @@
         <v>63</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F118" t="s">
         <v>17</v>
